--- a/data/historical_estimates/raw/Carretta_2001.xlsx
+++ b/data/historical_estimates/raw/Carretta_2001.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EE1AF5-CFBA-8046-9C56-6F4800CDB86D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA692B-CEF9-824B-9F0D-BC87B437DDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25380" yWindow="4940" windowWidth="21120" windowHeight="17620" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="5120" yWindow="9520" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>reference</t>
   </si>
@@ -124,6 +125,9 @@
   </si>
   <si>
     <t>mort_se</t>
+  </si>
+  <si>
+    <t>n_days_tot</t>
   </si>
 </sst>
 </file>
@@ -164,11 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5835606F-17C4-734B-AF17-790539259DAA}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -506,677 +509,670 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>28</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>0.41791</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>0.18809999999999999</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>109</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>1173</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0.31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>24</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>0.358209</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>0.17419999999999999</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>81</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>886</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>0.37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>5.9700999999999997E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>19</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>78</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>1.4925000000000001E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>23</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>0.104478</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>26</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>167</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>711</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>10.611940000000001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>1.8673999999999999</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>3141</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>117934</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>2.9850999999999999E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>2.86E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>8</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>30</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>0.68</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>3.8938000000000001E-7</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>0.34920000000000001</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>6.2399999999999999E-4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>1237</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>88</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11">
+        <v>2000</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>334</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>7821</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>31</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>29</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>935</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>7</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>0.23</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>28</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>42</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>0.36</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>1.7471999999999999E-7</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>105</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>0.96</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>3.8938000000000001E-7</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>0.71</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>1.7471999999999999E-7</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>0.96</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>1.7471999999999999E-7</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>0.96</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>1.7471999999999999E-7</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19">
+        <v>2000</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>4.7719999999999997E-5</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>108</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>598</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>24</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>0.23</v>
       </c>
     </row>
@@ -1239,6 +1235,37 @@
     </row>
     <row r="58" spans="5:5">
       <c r="E58" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019C6C93-6E4C-0042-A0E9-1C4038BC87FE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2">
+        <v>3736</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/historical_estimates/raw/Carretta_2001.xlsx
+++ b/data/historical_estimates/raw/Carretta_2001.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA692B-CEF9-824B-9F0D-BC87B437DDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A32E693-135B-DE49-84E7-C1AA5536E284}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="9520" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="19980" yWindow="5340" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Estimates" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>reference</t>
   </si>
@@ -127,7 +127,7 @@
     <t>mort_se</t>
   </si>
   <si>
-    <t>n_days_tot</t>
+    <t>nvesseldays</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1243,27 +1243,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019C6C93-6E4C-0042-A0E9-1C4038BC87FE}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2001</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
         <v>3736</v>
       </c>
     </row>
